--- a/Others/Insentive/Feb'2021/RSO Commission(1).xlsx
+++ b/Others/Insentive/Feb'2021/RSO Commission(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NAT08" sheetId="4" r:id="rId1"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,7 +2531,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
